--- a/biology/Zoologie/Amazone_verte/Amazone_verte.xlsx
+++ b/biology/Zoologie/Amazone_verte/Amazone_verte.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Amazona agilis
 L'Amazone verte ou Amazone à bec noir (Amazona agilis) est une espèce d'oiseaux de la famille des Psittacidae. Il s'agit d'une des espèces les plus rares du genre Amazona.
@@ -512,11 +524,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Proche de l'Amazone à bec jaune (Amazona collaria), cette espèce est caractérisée par un bec et des pattes de couleur anthracite. Elle présente un plumage à dominante verte avec une marque bleuâtre sur le front et une bande ailaire bleu vif.
 Avec 25 cm, il s'agit d'une des plus petites espèces du genre.
-Cet oiseau présente un net dimorphisme sexuel puisque le mâle arbore une marque rouge sur les ailes absente chez la femelle[1].
+Cet oiseau présente un net dimorphisme sexuel puisque le mâle arbore une marque rouge sur les ailes absente chez la femelle.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet oiseau est localisé aux forêts des John Crow Mountains en Jamaïque[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet oiseau est localisé aux forêts des John Crow Mountains en Jamaïque.
 </t>
         </is>
       </c>
